--- a/GT'ing for Quaran-teens (Responses).xlsx
+++ b/GT'ing for Quaran-teens (Responses).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/azhang344_gatech_edu/Documents/GitHub/VirtualVisitas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_C1502CFA2CCB6A7160EEC596D02528E350C23B25" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{101CD017-2226-4868-B82A-60AEC576B7A8}"/>
+  <bookViews>
+    <workbookView xWindow="735" yWindow="1335" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -868,17 +877,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -888,43 +898,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1114,26 +1127,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="20" width="21.57"/>
+    <col min="1" max="20" width="21.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908.739470451386</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43908.743100057865</v>
       </c>
@@ -1244,9 +1260,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>43908.74652177084</v>
+        <v>43908.746521770838</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -1276,9 +1292,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>43908.75495701389</v>
+        <v>43908.754957013887</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>40</v>
@@ -1305,9 +1321,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>43908.78623817129</v>
+        <v>43908.786238171291</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>47</v>
@@ -1334,7 +1350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43909.009792557874</v>
       </c>
@@ -1366,9 +1382,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>43909.40300957176</v>
+        <v>43909.403009571761</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>62</v>
@@ -1398,9 +1414,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>43909.40470375</v>
+        <v>43909.404703749999</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -1430,9 +1446,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>43909.40793793982</v>
+        <v>43909.407937939817</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>75</v>
@@ -1462,9 +1478,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>43909.41370078704</v>
+        <v>43909.413700787038</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -1497,9 +1513,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>43909.41627202547</v>
+        <v>43909.416272025468</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>87</v>
@@ -1529,7 +1545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43909.424268159724</v>
       </c>
@@ -1561,7 +1577,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43909.43689271991</v>
       </c>
@@ -1599,9 +1615,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>43909.47949978009</v>
+        <v>43909.479499780093</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>108</v>
@@ -1637,9 +1653,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>43909.48337447917</v>
+        <v>43909.483374479169</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>114</v>
@@ -1669,9 +1685,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>43909.49289221065</v>
+        <v>43909.492892210648</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>120</v>
@@ -1701,9 +1717,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>43909.50420436343</v>
+        <v>43909.504204363431</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>127</v>
@@ -1733,7 +1749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43909.537025833335</v>
       </c>
@@ -1762,9 +1778,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>43909.55529418981</v>
+        <v>43909.555294189813</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>137</v>
@@ -1794,9 +1810,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>43909.58057255787</v>
+        <v>43909.580572557868</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>142</v>
@@ -1826,9 +1842,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>43909.58071177083</v>
+        <v>43909.580711770832</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>147</v>
@@ -1858,7 +1874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43909.685696597226</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43909.960424907404</v>
       </c>
@@ -1928,9 +1944,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>43909.96949328703</v>
+        <v>43909.969493287033</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>166</v>
@@ -1969,7 +1985,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43909.970527673606</v>
       </c>
@@ -2001,9 +2017,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>43909.97410525463</v>
+        <v>43909.974105254631</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>181</v>
@@ -2033,9 +2049,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>43909.97789703704</v>
+        <v>43909.977897037039</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>188</v>
@@ -2068,9 +2084,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>43909.99308678241</v>
+        <v>43909.993086782408</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>194</v>
@@ -2100,9 +2116,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>43910.30137591435</v>
+        <v>43910.301375914351</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>198</v>
@@ -2135,7 +2151,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43910.362741516205</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43910.406325856486</v>
       </c>
@@ -2199,9 +2215,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>43910.41381222222</v>
+        <v>43910.413812222221</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>217</v>
@@ -2237,9 +2253,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>43910.42501333333</v>
+        <v>43910.425013333333</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>225</v>
@@ -2269,9 +2285,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>43910.44116758102</v>
+        <v>43910.441167581019</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>229</v>
@@ -2301,9 +2317,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>43910.44921583333</v>
+        <v>43910.449215833331</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>235</v>
@@ -2333,9 +2349,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>43910.46121195602</v>
+        <v>43910.461211956019</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>240</v>
@@ -2368,7 +2384,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43910.487635833335</v>
       </c>
@@ -2406,9 +2422,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>43910.50823902778</v>
+        <v>43910.508239027782</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>253</v>
@@ -2438,9 +2454,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>43910.51892649305</v>
+        <v>43910.518926493052</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>258</v>
@@ -2479,9 +2495,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>43910.53421938657</v>
+        <v>43910.534219386573</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>267</v>
@@ -2511,7 +2527,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43910.542465694445</v>
       </c>
@@ -2552,9 +2568,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>43910.54308033564</v>
+        <v>43910.543080335643</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>280</v>
@@ -2585,6 +2601,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>